--- a/doc/db design/db design.xlsx
+++ b/doc/db design/db design.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="历史数据" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="在线比赛数据" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="球队表" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="未来比赛场次" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="球队表" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="78">
   <si>
     <t xml:space="preserve">国家</t>
   </si>
@@ -122,6 +123,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">平手</t>
     </r>
@@ -130,6 +132,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-&gt;0</t>
     </r>
@@ -149,6 +152,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">平</t>
     </r>
@@ -157,6 +161,7 @@
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">/</t>
     </r>
@@ -165,6 +170,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">半 </t>
     </r>
@@ -173,6 +179,7 @@
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-&gt;0/0.5 </t>
     </r>
@@ -189,6 +196,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">球半 → </t>
     </r>
@@ -197,6 +205,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1.5</t>
     </r>
@@ -216,6 +225,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">*</t>
     </r>
@@ -224,6 +234,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">半球 → </t>
     </r>
@@ -232,6 +243,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-0.5</t>
     </r>
@@ -245,6 +257,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">*</t>
     </r>
@@ -253,6 +266,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">半</t>
     </r>
@@ -261,6 +275,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">/</t>
     </r>
@@ -269,6 +284,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">一 → </t>
     </r>
@@ -277,6 +293,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-0.5/-1</t>
     </r>
@@ -286,6 +303,90 @@
   </si>
   <si>
     <t xml:space="preserve">世俱杯</t>
+  </si>
+  <si>
+    <t xml:space="preserve">更新时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">半场胜负让球</t>
+  </si>
+  <si>
+    <t xml:space="preserve">半场胜负主队赔率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">半场胜负客队赔率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全场胜负让球</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全场胜负主队赔率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全场胜负客队赔率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">半场大小让球</t>
+  </si>
+  <si>
+    <t xml:space="preserve">半场大小主队赔率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">半场大小客队赔率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全场大小让球</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全场大小主队赔率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全场大小客队赔率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">比赛时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">离比赛开始还有多长时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全场让球</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全场主队赔率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全场客队赔率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">半场让球</t>
+  </si>
+  <si>
+    <t xml:space="preserve">半场主队赔率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">半场客队赔率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">半场主队赢球赔率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">半场打平赔率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">半场客队赢球赔率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全场主队赢球赔率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全场打平赔率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全场客队赢球赔率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">单位分钟</t>
   </si>
   <si>
     <t xml:space="preserve">ID</t>
@@ -304,11 +405,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -329,11 +431,18 @@
       <sz val="10"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Noto Sans CJK SC Regular"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -378,7 +487,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -389,6 +498,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -411,18 +524,18 @@
   <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="Q:V A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="9" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.2091836734694"/>
-    <col collapsed="false" hidden="false" max="16" min="11" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="6.98469387755102"/>
-    <col collapsed="false" hidden="false" max="21" min="18" style="0" width="12.4081632653061"/>
-    <col collapsed="false" hidden="false" max="25" min="22" style="0" width="16.0204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="9" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="16" min="11" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="21" min="18" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="25" min="22" style="0" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -634,20 +747,96 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:V1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q:V"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="10" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="14" min="11" style="0" width="12.4081632653061"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="16.0204081632653"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="19" min="18" style="0" width="16.0204081632653"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="12.4081632653061"/>
+    <col collapsed="false" hidden="false" max="22" min="21" style="0" width="16.0204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="11.3418367346939"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -660,35 +849,161 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AB1" activeCellId="1" sqref="Q:V AB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="9" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.4387755102041"/>
+    <col collapsed="false" hidden="false" max="16" min="11" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="22" min="17" style="0" width="16.0204081632653"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="0" width="16.0204081632653"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="12.4081632653061"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="0" width="16.0204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="29" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J2" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="Q:V C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/doc/db design/db design.xlsx
+++ b/doc/db design/db design.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="历史数据" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,88 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="123">
+  <si>
+    <t xml:space="preserve">country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">league</t>
+  </si>
+  <si>
+    <t xml:space="preserve">match_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">round</t>
+  </si>
+  <si>
+    <t xml:space="preserve">host</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">full_host_scores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">full_guest_scores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">half_host_scores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">half_guest_scores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">full_bet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">half_bet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">host_points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guest_points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">points_deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">host_rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guest_rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rank_deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">host_total_scores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">host_total_lost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guest_total_scores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guest_total_lost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">host_host_total_scores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">host_host_total_lost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guest_guest_total_scores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guest_guest_total_lost</t>
+  </si>
   <si>
     <t xml:space="preserve">国家</t>
   </si>
@@ -46,10 +127,16 @@
     <t xml:space="preserve">客队</t>
   </si>
   <si>
-    <t xml:space="preserve">全场比分</t>
-  </si>
-  <si>
-    <t xml:space="preserve">半场比分</t>
+    <t xml:space="preserve">全场主队进球数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全场客队进球数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">半场主队进球数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">半场客队进球数</t>
   </si>
   <si>
     <t xml:space="preserve">让球全场</t>
@@ -123,7 +210,6 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">平手</t>
     </r>
@@ -132,7 +218,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-&gt;0</t>
     </r>
@@ -152,7 +237,6 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">平</t>
     </r>
@@ -161,7 +245,6 @@
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">/</t>
     </r>
@@ -170,7 +253,6 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">半 </t>
     </r>
@@ -179,7 +261,6 @@
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-&gt;0/0.5 </t>
     </r>
@@ -196,7 +277,6 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">球半 → </t>
     </r>
@@ -205,7 +285,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1.5</t>
     </r>
@@ -225,7 +304,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">*</t>
     </r>
@@ -234,7 +312,6 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">半球 → </t>
     </r>
@@ -243,7 +320,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-0.5</t>
     </r>
@@ -257,7 +333,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">*</t>
     </r>
@@ -266,7 +341,6 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">半</t>
     </r>
@@ -275,7 +349,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">/</t>
     </r>
@@ -284,7 +357,6 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">一 → </t>
     </r>
@@ -293,7 +365,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-0.5/-1</t>
     </r>
@@ -305,6 +376,15 @@
     <t xml:space="preserve">世俱杯</t>
   </si>
   <si>
+    <t xml:space="preserve">historical_matches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全场比分</t>
+  </si>
+  <si>
+    <t xml:space="preserve">半场比分</t>
+  </si>
+  <si>
     <t xml:space="preserve">更新时间</t>
   </si>
   <si>
@@ -342,6 +422,45 @@
   </si>
   <si>
     <t xml:space="preserve">全场大小客队赔率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">update_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">match_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time_to_start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">full_host_bet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">full_guest_bet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">half_host_bet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">half_guest_bet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">half_host_win_bet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">half_deduce_bet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">half_guest_win_bet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">full_host_win_bet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">full_deduce_bet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">full_guest_win_bet</t>
   </si>
   <si>
     <t xml:space="preserve">比赛时间</t>
@@ -405,12 +524,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -431,18 +549,11 @@
       <sz val="10"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Noto Sans CJK SC Regular"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -487,7 +598,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -498,10 +609,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -521,21 +628,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y8"/>
+  <dimension ref="A1:AA16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="Q:V A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="9" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="16" min="11" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="21" min="18" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="25" min="22" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.0459183673469"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.8826530612245"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.4591836734694"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.2959183673469"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="12.4081632653061"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.4336734693878"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="12.4081632653061"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="14.7704081632653"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="15.8826530612245"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="13.7959183673469"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="16.7142857142857"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="14.6326530612245"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="20.4642857142857"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="18.3775510204082"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="22.1275510204082"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="20.0510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -614,121 +732,221 @@
       <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="0" t="n">
+      <c r="F3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="0" t="n">
+      <c r="J3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="O3" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="P3" s="0" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>63</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>66</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="C6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>70</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>72</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="1" t="s">
-        <v>46</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -749,88 +967,86 @@
   </sheetPr>
   <dimension ref="A1:V1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q:V"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="10" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="14" min="11" style="0" width="12.4081632653061"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="16.0204081632653"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="19" min="18" style="0" width="16.0204081632653"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="12.4081632653061"/>
-    <col collapsed="false" hidden="false" max="22" min="21" style="0" width="16.0204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="14" min="11" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="19" min="18" style="0" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="22" min="21" style="0" width="15.7959183673469"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>59</v>
+        <v>79</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -849,23 +1065,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB2"/>
+  <dimension ref="A1:AB4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AB1" activeCellId="1" sqref="Q:V AB1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="9" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.0459183673469"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.8826530612245"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.4387755102041"/>
-    <col collapsed="false" hidden="false" max="16" min="11" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="22" min="17" style="0" width="16.0204081632653"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="25" min="24" style="0" width="16.0204081632653"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="12.4081632653061"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="0" width="16.0204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="29" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.2959183673469"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.4081632653061"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.4285714285714"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.4081632653061"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.4336734693878"/>
+    <col collapsed="false" hidden="false" max="22" min="17" style="0" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="0" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="0" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="29" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -875,88 +1098,219 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J2" s="3" t="s">
-        <v>74</v>
+      <c r="H2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J4" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -978,26 +1332,23 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="Q:V C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/doc/db design/db design.xlsx
+++ b/doc/db design/db design.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="124">
   <si>
     <t xml:space="preserve">country</t>
   </si>
@@ -461,6 +461,9 @@
   </si>
   <si>
     <t xml:space="preserve">full_guest_win_bet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">half_big_bet</t>
   </si>
   <si>
     <t xml:space="preserve">比赛时间</t>
@@ -1067,8 +1070,8 @@
   </sheetPr>
   <dimension ref="A1:AB4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X2" activeCellId="0" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1084,7 +1087,7 @@
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.4081632653061"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.4336734693878"/>
     <col collapsed="false" hidden="false" max="22" min="17" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="14.6326530612245"/>
     <col collapsed="false" hidden="false" max="25" min="24" style="0" width="15.7959183673469"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="0" width="12.2857142857143"/>
     <col collapsed="false" hidden="false" max="28" min="27" style="0" width="15.7959183673469"/>
@@ -1216,7 +1219,9 @@
       <c r="V2" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="W2" s="1"/>
+      <c r="W2" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
@@ -1248,46 +1253,46 @@
         <v>79</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>86</v>
@@ -1310,7 +1315,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J4" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1339,16 +1344,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
